--- a/Code/Results/Cases/Case_2_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006168671267201</v>
+        <v>1.053203758824112</v>
       </c>
       <c r="D2">
-        <v>1.02478290588769</v>
+        <v>1.054741524300087</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.025249448858994</v>
+        <v>1.063515329478111</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049094663844848</v>
+        <v>1.041614663662153</v>
       </c>
       <c r="J2">
-        <v>1.028166430959803</v>
+        <v>1.058222334472226</v>
       </c>
       <c r="K2">
-        <v>1.035907443739442</v>
+        <v>1.057483898999779</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.03636787862442</v>
+        <v>1.066233760073593</v>
       </c>
       <c r="N2">
-        <v>1.029626545224104</v>
+        <v>1.059725131566975</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.015452263139784</v>
+        <v>1.054933369543026</v>
       </c>
       <c r="D3">
-        <v>1.03198598250878</v>
+        <v>1.056077087040096</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.033484308908663</v>
+        <v>1.065089258232007</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052260838868643</v>
+        <v>1.042068476662145</v>
       </c>
       <c r="J3">
-        <v>1.035530367698767</v>
+        <v>1.059598948930413</v>
       </c>
       <c r="K3">
-        <v>1.042225322412939</v>
+        <v>1.058631431466922</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.043705953974619</v>
+        <v>1.067620811408918</v>
       </c>
       <c r="N3">
-        <v>1.037000939597893</v>
+        <v>1.061103700975592</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021237103331007</v>
+        <v>1.056049328947736</v>
       </c>
       <c r="D4">
-        <v>1.036475859650425</v>
+        <v>1.05693826751714</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.038622434551938</v>
+        <v>1.066104926468444</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054216370726729</v>
+        <v>1.042359091091859</v>
       </c>
       <c r="J4">
-        <v>1.040112732593781</v>
+        <v>1.060486197599019</v>
       </c>
       <c r="K4">
-        <v>1.04615311644263</v>
+        <v>1.059370409719171</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.048276038889563</v>
+        <v>1.068515069344284</v>
       </c>
       <c r="N4">
-        <v>1.041589811976662</v>
+        <v>1.061992209639076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023619502981435</v>
+        <v>1.056517723996725</v>
       </c>
       <c r="D5">
-        <v>1.038325142920171</v>
+        <v>1.05729959618471</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.040739973903795</v>
+        <v>1.066531263162632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055017468845745</v>
+        <v>1.042480544033495</v>
       </c>
       <c r="J5">
-        <v>1.041998320863498</v>
+        <v>1.060858368139762</v>
       </c>
       <c r="K5">
-        <v>1.047768444323906</v>
+        <v>1.059680236059867</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.050157449444548</v>
+        <v>1.068890247393726</v>
       </c>
       <c r="N5">
-        <v>1.043478077998002</v>
+        <v>1.062364908704676</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024016712098979</v>
+        <v>1.056596325795191</v>
       </c>
       <c r="D6">
-        <v>1.038633474617906</v>
+        <v>1.057360223443494</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.041093106831355</v>
+        <v>1.066602809204937</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055150780193016</v>
+        <v>1.042500894351889</v>
       </c>
       <c r="J6">
-        <v>1.042312602596543</v>
+        <v>1.060920808962365</v>
       </c>
       <c r="K6">
-        <v>1.048037625447791</v>
+        <v>1.059732208296423</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.050471085289855</v>
+        <v>1.068953196743312</v>
       </c>
       <c r="N6">
-        <v>1.043792806047156</v>
+        <v>1.062427438200409</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021269127209411</v>
+        <v>1.056055590608266</v>
       </c>
       <c r="D7">
-        <v>1.036500716877388</v>
+        <v>1.056943098389623</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978918</v>
       </c>
       <c r="F7">
-        <v>1.038650892535226</v>
+        <v>1.066110625737813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054227155963327</v>
+        <v>1.042360716779956</v>
       </c>
       <c r="J7">
-        <v>1.040138084808634</v>
+        <v>1.060491173799873</v>
       </c>
       <c r="K7">
-        <v>1.046174838605268</v>
+        <v>1.059374552920917</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459044</v>
       </c>
       <c r="M7">
-        <v>1.048301331512083</v>
+        <v>1.068520085493264</v>
       </c>
       <c r="N7">
-        <v>1.041615200194569</v>
+        <v>1.061997192906707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009354462613171</v>
+        <v>1.053788963641975</v>
       </c>
       <c r="D8">
-        <v>1.027254329733239</v>
+        <v>1.055193515449165</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.028073820296011</v>
+        <v>1.064047827041119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050184814989802</v>
+        <v>1.041768662737047</v>
       </c>
       <c r="J8">
-        <v>1.030694748434483</v>
+        <v>1.058688302531076</v>
       </c>
       <c r="K8">
-        <v>1.038077357588143</v>
+        <v>1.057872454623359</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591057</v>
       </c>
       <c r="M8">
-        <v>1.038886481359398</v>
+        <v>1.066703202062891</v>
       </c>
       <c r="N8">
-        <v>1.0321584531996</v>
+        <v>1.060191761353916</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9864677070368438</v>
+        <v>1.04976957142443</v>
       </c>
       <c r="D9">
-        <v>1.0095135269846</v>
+        <v>1.052086921409484</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.007820452455154</v>
+        <v>1.060391134812691</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042280721521995</v>
+        <v>1.0407019455836</v>
       </c>
       <c r="J9">
-        <v>1.012507545024846</v>
+        <v>1.055483957357731</v>
       </c>
       <c r="K9">
-        <v>1.02245411677237</v>
+        <v>1.055197899394579</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.020787909846215</v>
+        <v>1.063476145986216</v>
       </c>
       <c r="N9">
-        <v>1.01394542187502</v>
+        <v>1.056982865642881</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9696249244717898</v>
+        <v>1.047071996034689</v>
       </c>
       <c r="D10">
-        <v>0.9964858750659727</v>
+        <v>1.049999295618122</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.992973132858841</v>
+        <v>1.057937895128154</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036375434816963</v>
+        <v>1.039974737903881</v>
       </c>
       <c r="J10">
-        <v>0.9990977651405282</v>
+        <v>1.0533284928222</v>
       </c>
       <c r="K10">
-        <v>1.010918869326244</v>
+        <v>1.053395610863894</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.007470429276704</v>
+        <v>1.06130690075262</v>
       </c>
       <c r="N10">
-        <v>1.000516598565143</v>
+        <v>1.054824340100474</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9618676328412364</v>
+        <v>1.045899434935521</v>
       </c>
       <c r="D11">
-        <v>0.9904962924674501</v>
+        <v>1.049091246683636</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9861523378741783</v>
+        <v>1.056871771875845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033636473627793</v>
+        <v>1.039655971078841</v>
       </c>
       <c r="J11">
-        <v>0.9929175458434876</v>
+        <v>1.052390416982893</v>
       </c>
       <c r="K11">
-        <v>1.005599688214046</v>
+        <v>1.052610487747038</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.001340212604844</v>
+        <v>1.060363186595165</v>
       </c>
       <c r="N11">
-        <v>0.9943276026478198</v>
+        <v>1.053884932085877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9589071698253853</v>
+        <v>1.045463199726864</v>
       </c>
       <c r="D12">
-        <v>0.9882124367709165</v>
+        <v>1.048753328413184</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9835522835720939</v>
+        <v>1.056475171534662</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032588502730271</v>
+        <v>1.039536977846111</v>
       </c>
       <c r="J12">
-        <v>0.9905585460076964</v>
+        <v>1.052041245801429</v>
       </c>
       <c r="K12">
-        <v>1.003569006715902</v>
+        <v>1.052318136188661</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.999001528738761</v>
+        <v>1.060011971037076</v>
       </c>
       <c r="N12">
-        <v>0.9919652527616806</v>
+        <v>1.053535265041285</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9595459462896265</v>
+        <v>1.045556805359837</v>
       </c>
       <c r="D13">
-        <v>0.9887051256984322</v>
+        <v>1.04882584168733</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9841131524964806</v>
+        <v>1.056560270818402</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032814740004642</v>
+        <v>1.039562529050145</v>
       </c>
       <c r="J13">
-        <v>0.9910675598353774</v>
+        <v>1.052116177395065</v>
       </c>
       <c r="K13">
-        <v>1.004007191311941</v>
+        <v>1.052380879462351</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9995061015107818</v>
+        <v>1.060087338887473</v>
       </c>
       <c r="N13">
-        <v>0.9924749894473816</v>
+        <v>1.053610303046379</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9616245931895276</v>
+        <v>1.04586338985991</v>
       </c>
       <c r="D14">
-        <v>0.9903087563282541</v>
+        <v>1.049063327153241</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9859388227574201</v>
+        <v>1.056839000990668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033550493352975</v>
+        <v>1.039646147112059</v>
       </c>
       <c r="J14">
-        <v>0.9927238902703203</v>
+        <v>1.052361569324022</v>
       </c>
       <c r="K14">
-        <v>1.005432991348107</v>
+        <v>1.052586336676121</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.001148199258074</v>
+        <v>1.06033416892543</v>
       </c>
       <c r="N14">
-        <v>0.9941336720615258</v>
+        <v>1.053856043460021</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9628945306401663</v>
+        <v>1.046052194187509</v>
       </c>
       <c r="D15">
-        <v>0.9912887582462906</v>
+        <v>1.049209566102018</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9870546120726907</v>
+        <v>1.05701065657508</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033999652362002</v>
+        <v>1.039697588726786</v>
       </c>
       <c r="J15">
-        <v>0.9937357696083869</v>
+        <v>1.052512666462427</v>
       </c>
       <c r="K15">
-        <v>1.006303994168696</v>
+        <v>1.052712829608218</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.002151548215791</v>
+        <v>1.060486158764967</v>
       </c>
       <c r="N15">
-        <v>0.9951469883843165</v>
+        <v>1.054007355173693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9701292142311287</v>
+        <v>1.047149718791115</v>
       </c>
       <c r="D16">
-        <v>0.9968754975338866</v>
+        <v>1.050059472447167</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9934169314799689</v>
+        <v>1.058008567681816</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036553112524517</v>
+        <v>1.039995811131877</v>
       </c>
       <c r="J16">
-        <v>0.999499464692639</v>
+        <v>1.053390648560412</v>
       </c>
       <c r="K16">
-        <v>1.011264551547526</v>
+        <v>1.053447616367466</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.007869040681942</v>
+        <v>1.061369437661577</v>
       </c>
       <c r="N16">
-        <v>1.000918868576693</v>
+        <v>1.054886584106964</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.97453700872261</v>
+        <v>1.047836950857927</v>
       </c>
       <c r="D17">
-        <v>1.000282252848733</v>
+        <v>1.050591490894565</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9972979856116234</v>
+        <v>1.058633488076272</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038104001019585</v>
+        <v>1.040181834911319</v>
       </c>
       <c r="J17">
-        <v>1.003010125532139</v>
+        <v>1.053940102438859</v>
       </c>
       <c r="K17">
-        <v>1.014285334959486</v>
+        <v>1.053907256012782</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.011353557374957</v>
+        <v>1.061922302497825</v>
       </c>
       <c r="N17">
-        <v>1.004434514957264</v>
+        <v>1.055436818272942</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9770639204879604</v>
+        <v>1.048237369449848</v>
       </c>
       <c r="D18">
-        <v>1.002236240450669</v>
+        <v>1.050901414241602</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9995245199254968</v>
+        <v>1.058997622753221</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038991303935466</v>
+        <v>1.04028996537073</v>
       </c>
       <c r="J18">
-        <v>1.005022333330984</v>
+        <v>1.054260132749882</v>
       </c>
       <c r="K18">
-        <v>1.016016484794234</v>
+        <v>1.054174901468224</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.01335146582525</v>
+        <v>1.062244354051648</v>
       </c>
       <c r="N18">
-        <v>1.006449580321987</v>
+        <v>1.055757303063714</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9779183100324562</v>
+        <v>1.048373829089896</v>
       </c>
       <c r="D19">
-        <v>1.002897066382278</v>
+        <v>1.05100702366861</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.000277607064459</v>
+        <v>1.059121720841181</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039291005742689</v>
+        <v>1.04032677179405</v>
       </c>
       <c r="J19">
-        <v>1.005702621052105</v>
+        <v>1.054369177781418</v>
       </c>
       <c r="K19">
-        <v>1.01660170332665</v>
+        <v>1.054266084930401</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.014027032658534</v>
+        <v>1.0623540936333</v>
       </c>
       <c r="N19">
-        <v>1.007130834129702</v>
+        <v>1.055866502951703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.974068715171129</v>
+        <v>1.047763262205623</v>
       </c>
       <c r="D20">
-        <v>0.9999202099231855</v>
+        <v>1.050534451202168</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9968854856513036</v>
+        <v>1.058566478500237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037939416871696</v>
+        <v>1.040161915054403</v>
       </c>
       <c r="J20">
-        <v>1.002637184958318</v>
+        <v>1.053881198599722</v>
       </c>
       <c r="K20">
-        <v>1.013964462488424</v>
+        <v>1.053857988139142</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>1.010983322011979</v>
+        <v>1.061863029413551</v>
       </c>
       <c r="N20">
-        <v>1.004061044765051</v>
+        <v>1.055377830783597</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9610147498330992</v>
+        <v>1.045773127670345</v>
       </c>
       <c r="D21">
-        <v>0.9898382175989022</v>
+        <v>1.04899341106074</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9854031130572189</v>
+        <v>1.056756938445121</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033334706372338</v>
+        <v>1.039621539985527</v>
       </c>
       <c r="J21">
-        <v>0.9922379573961164</v>
+        <v>1.052289327736959</v>
       </c>
       <c r="K21">
-        <v>1.005014699838639</v>
+        <v>1.052525854677649</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>1.000666407297033</v>
+        <v>1.060261502467955</v>
       </c>
       <c r="N21">
-        <v>0.9936470491069033</v>
+        <v>1.053783699281618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.952343741276903</v>
+        <v>1.044517827483568</v>
       </c>
       <c r="D22">
-        <v>0.9831532477530941</v>
+        <v>1.048020855040584</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9777939544857164</v>
+        <v>1.055615760181882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030260396598255</v>
+        <v>1.039278373719677</v>
       </c>
       <c r="J22">
-        <v>0.9853280925871647</v>
+        <v>1.051284235479659</v>
       </c>
       <c r="K22">
-        <v>0.9990659961343427</v>
+        <v>1.051684106543853</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.993818536917096</v>
+        <v>1.059250628293447</v>
       </c>
       <c r="N22">
-        <v>0.9867273714973502</v>
+        <v>1.052777179678027</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9569879517597906</v>
+        <v>1.045183673577905</v>
       </c>
       <c r="D23">
-        <v>0.9867324676234468</v>
+        <v>1.048536775248332</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9818676151496885</v>
+        <v>1.056221052527919</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031908391047053</v>
+        <v>1.039460617981236</v>
       </c>
       <c r="J23">
-        <v>0.9890291613762505</v>
+        <v>1.051817458983201</v>
       </c>
       <c r="K23">
-        <v>1.002252393755798</v>
+        <v>1.05213073393391</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9974856775167429</v>
+        <v>1.059786889300003</v>
       </c>
       <c r="N23">
-        <v>0.9904336962286353</v>
+        <v>1.053311160420107</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9742804524037045</v>
+        <v>1.047796560271026</v>
       </c>
       <c r="D24">
-        <v>1.000083903378861</v>
+        <v>1.05056022620126</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9970719910811814</v>
+        <v>1.058596758388887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038013838597403</v>
+        <v>1.040170917136078</v>
       </c>
       <c r="J24">
-        <v>1.002805809925309</v>
+        <v>1.053907816120544</v>
       </c>
       <c r="K24">
-        <v>1.014109545740045</v>
+        <v>1.053880251574979</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>1.011150721691918</v>
+        <v>1.061889813682476</v>
       </c>
       <c r="N24">
-        <v>1.004229909198837</v>
+        <v>1.055404486104352</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9926378857667661</v>
+        <v>1.050811778352038</v>
       </c>
       <c r="D25">
-        <v>1.014292745125626</v>
+        <v>1.052892918546142</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>1.013272080479211</v>
+        <v>1.061339140234389</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044427034774723</v>
+        <v>1.040980526378144</v>
       </c>
       <c r="J25">
-        <v>1.01741558024699</v>
+        <v>1.056315690240146</v>
       </c>
       <c r="K25">
-        <v>1.026673163556551</v>
+        <v>1.055892681108022</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>1.025667799843962</v>
+        <v>1.064313512592895</v>
       </c>
       <c r="N25">
-        <v>1.018860427070138</v>
+        <v>1.05781577968139</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053203758824112</v>
+        <v>1.006168671267203</v>
       </c>
       <c r="D2">
-        <v>1.054741524300087</v>
+        <v>1.024782905887692</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.063515329478111</v>
+        <v>1.025249448858996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041614663662153</v>
+        <v>1.049094663844849</v>
       </c>
       <c r="J2">
-        <v>1.058222334472226</v>
+        <v>1.028166430959806</v>
       </c>
       <c r="K2">
-        <v>1.057483898999779</v>
+        <v>1.035907443739444</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.066233760073593</v>
+        <v>1.036367878624422</v>
       </c>
       <c r="N2">
-        <v>1.059725131566975</v>
+        <v>1.029626545224106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054933369543026</v>
+        <v>1.015452263139784</v>
       </c>
       <c r="D3">
-        <v>1.056077087040096</v>
+        <v>1.03198598250878</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.065089258232007</v>
+        <v>1.033484308908663</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042068476662145</v>
+        <v>1.052260838868643</v>
       </c>
       <c r="J3">
-        <v>1.059598948930413</v>
+        <v>1.035530367698767</v>
       </c>
       <c r="K3">
-        <v>1.058631431466922</v>
+        <v>1.042225322412939</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.067620811408918</v>
+        <v>1.043705953974619</v>
       </c>
       <c r="N3">
-        <v>1.061103700975592</v>
+        <v>1.037000939597893</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056049328947736</v>
+        <v>1.021237103331006</v>
       </c>
       <c r="D4">
-        <v>1.05693826751714</v>
+        <v>1.036475859650425</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.066104926468444</v>
+        <v>1.038622434551937</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042359091091859</v>
+        <v>1.054216370726729</v>
       </c>
       <c r="J4">
-        <v>1.060486197599019</v>
+        <v>1.04011273259378</v>
       </c>
       <c r="K4">
-        <v>1.059370409719171</v>
+        <v>1.046153116442629</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.068515069344284</v>
+        <v>1.048276038889563</v>
       </c>
       <c r="N4">
-        <v>1.061992209639076</v>
+        <v>1.041589811976661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056517723996725</v>
+        <v>1.023619502981434</v>
       </c>
       <c r="D5">
-        <v>1.05729959618471</v>
+        <v>1.038325142920171</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.066531263162632</v>
+        <v>1.040739973903794</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042480544033495</v>
+        <v>1.055017468845745</v>
       </c>
       <c r="J5">
-        <v>1.060858368139762</v>
+        <v>1.041998320863497</v>
       </c>
       <c r="K5">
-        <v>1.059680236059867</v>
+        <v>1.047768444323906</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.068890247393726</v>
+        <v>1.050157449444548</v>
       </c>
       <c r="N5">
-        <v>1.062364908704676</v>
+        <v>1.043478077998002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056596325795191</v>
+        <v>1.02401671209898</v>
       </c>
       <c r="D6">
-        <v>1.057360223443494</v>
+        <v>1.038633474617908</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.066602809204937</v>
+        <v>1.041093106831356</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042500894351889</v>
+        <v>1.055150780193016</v>
       </c>
       <c r="J6">
-        <v>1.060920808962365</v>
+        <v>1.042312602596544</v>
       </c>
       <c r="K6">
-        <v>1.059732208296423</v>
+        <v>1.048037625447792</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.068953196743312</v>
+        <v>1.050471085289857</v>
       </c>
       <c r="N6">
-        <v>1.062427438200409</v>
+        <v>1.043792806047158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056055590608266</v>
+        <v>1.021269127209411</v>
       </c>
       <c r="D7">
-        <v>1.056943098389623</v>
+        <v>1.036500716877387</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978918</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.066110625737813</v>
+        <v>1.038650892535226</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042360716779956</v>
+        <v>1.054227155963327</v>
       </c>
       <c r="J7">
-        <v>1.060491173799873</v>
+        <v>1.040138084808634</v>
       </c>
       <c r="K7">
-        <v>1.059374552920917</v>
+        <v>1.046174838605268</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459044</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.068520085493264</v>
+        <v>1.048301331512083</v>
       </c>
       <c r="N7">
-        <v>1.061997192906707</v>
+        <v>1.041615200194569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053788963641975</v>
+        <v>1.00935446261317</v>
       </c>
       <c r="D8">
-        <v>1.055193515449165</v>
+        <v>1.027254329733238</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.064047827041119</v>
+        <v>1.02807382029601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041768662737047</v>
+        <v>1.050184814989801</v>
       </c>
       <c r="J8">
-        <v>1.058688302531076</v>
+        <v>1.030694748434482</v>
       </c>
       <c r="K8">
-        <v>1.057872454623359</v>
+        <v>1.038077357588142</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591057</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.066703202062891</v>
+        <v>1.038886481359397</v>
       </c>
       <c r="N8">
-        <v>1.060191761353916</v>
+        <v>1.032158453199599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04976957142443</v>
+        <v>0.9864677070368413</v>
       </c>
       <c r="D9">
-        <v>1.052086921409484</v>
+        <v>1.009513526984598</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.060391134812691</v>
+        <v>1.007820452455152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0407019455836</v>
+        <v>1.042280721521994</v>
       </c>
       <c r="J9">
-        <v>1.055483957357731</v>
+        <v>1.012507545024844</v>
       </c>
       <c r="K9">
-        <v>1.055197899394579</v>
+        <v>1.022454116772368</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.063476145986216</v>
+        <v>1.020787909846213</v>
       </c>
       <c r="N9">
-        <v>1.056982865642881</v>
+        <v>1.013945421875018</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047071996034689</v>
+        <v>0.9696249244717909</v>
       </c>
       <c r="D10">
-        <v>1.049999295618122</v>
+        <v>0.9964858750659735</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.057937895128154</v>
+        <v>0.9929731328588419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039974737903881</v>
+        <v>1.036375434816963</v>
       </c>
       <c r="J10">
-        <v>1.0533284928222</v>
+        <v>0.9990977651405293</v>
       </c>
       <c r="K10">
-        <v>1.053395610863894</v>
+        <v>1.010918869326245</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.06130690075262</v>
+        <v>1.007470429276705</v>
       </c>
       <c r="N10">
-        <v>1.054824340100474</v>
+        <v>1.000516598565144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045899434935521</v>
+        <v>0.9618676328412392</v>
       </c>
       <c r="D11">
-        <v>1.049091246683636</v>
+        <v>0.9904962924674522</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.056871771875845</v>
+        <v>0.9861523378741809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039655971078841</v>
+        <v>1.033636473627794</v>
       </c>
       <c r="J11">
-        <v>1.052390416982893</v>
+        <v>0.99291754584349</v>
       </c>
       <c r="K11">
-        <v>1.052610487747038</v>
+        <v>1.005599688214048</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.060363186595165</v>
+        <v>1.001340212604846</v>
       </c>
       <c r="N11">
-        <v>1.053884932085877</v>
+        <v>0.9943276026478223</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045463199726864</v>
+        <v>0.9589071698253843</v>
       </c>
       <c r="D12">
-        <v>1.048753328413184</v>
+        <v>0.9882124367709156</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.056475171534662</v>
+        <v>0.9835522835720929</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039536977846111</v>
+        <v>1.03258850273027</v>
       </c>
       <c r="J12">
-        <v>1.052041245801429</v>
+        <v>0.9905585460076952</v>
       </c>
       <c r="K12">
-        <v>1.052318136188661</v>
+        <v>1.0035690067159</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.060011971037076</v>
+        <v>0.9990015287387601</v>
       </c>
       <c r="N12">
-        <v>1.053535265041285</v>
+        <v>0.9919652527616798</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045556805359837</v>
+        <v>0.9595459462896284</v>
       </c>
       <c r="D13">
-        <v>1.04882584168733</v>
+        <v>0.9887051256984336</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.056560270818402</v>
+        <v>0.9841131524964819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039562529050145</v>
+        <v>1.032814740004643</v>
       </c>
       <c r="J13">
-        <v>1.052116177395065</v>
+        <v>0.9910675598353792</v>
       </c>
       <c r="K13">
-        <v>1.052380879462351</v>
+        <v>1.004007191311943</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.060087338887473</v>
+        <v>0.9995061015107831</v>
       </c>
       <c r="N13">
-        <v>1.053610303046379</v>
+        <v>0.9924749894473834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04586338985991</v>
+        <v>0.9616245931895272</v>
       </c>
       <c r="D14">
-        <v>1.049063327153241</v>
+        <v>0.9903087563282539</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.056839000990668</v>
+        <v>0.98593882275742</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039646147112059</v>
+        <v>1.033550493352974</v>
       </c>
       <c r="J14">
-        <v>1.052361569324022</v>
+        <v>0.99272389027032</v>
       </c>
       <c r="K14">
-        <v>1.052586336676121</v>
+        <v>1.005432991348107</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.06033416892543</v>
+        <v>1.001148199258074</v>
       </c>
       <c r="N14">
-        <v>1.053856043460021</v>
+        <v>0.9941336720615256</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.046052194187509</v>
+        <v>0.9628945306401674</v>
       </c>
       <c r="D15">
-        <v>1.049209566102018</v>
+        <v>0.9912887582462915</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.05701065657508</v>
+        <v>0.9870546120726919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039697588726786</v>
+        <v>1.033999652362003</v>
       </c>
       <c r="J15">
-        <v>1.052512666462427</v>
+        <v>0.9937357696083882</v>
       </c>
       <c r="K15">
-        <v>1.052712829608218</v>
+        <v>1.006303994168697</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.060486158764967</v>
+        <v>1.002151548215791</v>
       </c>
       <c r="N15">
-        <v>1.054007355173693</v>
+        <v>0.9951469883843178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.047149718791115</v>
+        <v>0.9701292142311294</v>
       </c>
       <c r="D16">
-        <v>1.050059472447167</v>
+        <v>0.9968754975338875</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.058008567681816</v>
+        <v>0.99341693147997</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039995811131877</v>
+        <v>1.036553112524517</v>
       </c>
       <c r="J16">
-        <v>1.053390648560412</v>
+        <v>0.9994994646926396</v>
       </c>
       <c r="K16">
-        <v>1.053447616367466</v>
+        <v>1.011264551547526</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.061369437661577</v>
+        <v>1.007869040681943</v>
       </c>
       <c r="N16">
-        <v>1.054886584106964</v>
+        <v>1.000918868576694</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.047836950857927</v>
+        <v>0.974537008722613</v>
       </c>
       <c r="D17">
-        <v>1.050591490894565</v>
+        <v>1.000282252848735</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.058633488076272</v>
+        <v>0.9972979856116257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040181834911319</v>
+        <v>1.038104001019586</v>
       </c>
       <c r="J17">
-        <v>1.053940102438859</v>
+        <v>1.003010125532142</v>
       </c>
       <c r="K17">
-        <v>1.053907256012782</v>
+        <v>1.014285334959488</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.061922302497825</v>
+        <v>1.011353557374959</v>
       </c>
       <c r="N17">
-        <v>1.055436818272942</v>
+        <v>1.004434514957267</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048237369449848</v>
+        <v>0.9770639204879606</v>
       </c>
       <c r="D18">
-        <v>1.050901414241602</v>
+        <v>1.002236240450669</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.058997622753221</v>
+        <v>0.999524519925497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04028996537073</v>
+        <v>1.038991303935466</v>
       </c>
       <c r="J18">
-        <v>1.054260132749882</v>
+        <v>1.005022333330984</v>
       </c>
       <c r="K18">
-        <v>1.054174901468224</v>
+        <v>1.016016484794234</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.062244354051648</v>
+        <v>1.01335146582525</v>
       </c>
       <c r="N18">
-        <v>1.055757303063714</v>
+        <v>1.006449580321987</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.048373829089896</v>
+        <v>0.9779183100324566</v>
       </c>
       <c r="D19">
-        <v>1.05100702366861</v>
+        <v>1.002897066382278</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.059121720841181</v>
+        <v>1.00027760706446</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04032677179405</v>
+        <v>1.039291005742689</v>
       </c>
       <c r="J19">
-        <v>1.054369177781418</v>
+        <v>1.005702621052105</v>
       </c>
       <c r="K19">
-        <v>1.054266084930401</v>
+        <v>1.01660170332665</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.0623540936333</v>
+        <v>1.014027032658534</v>
       </c>
       <c r="N19">
-        <v>1.055866502951703</v>
+        <v>1.007130834129702</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.047763262205623</v>
+        <v>0.9740687151711277</v>
       </c>
       <c r="D20">
-        <v>1.050534451202168</v>
+        <v>0.9999202099231843</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.058566478500237</v>
+        <v>0.9968854856513021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040161915054403</v>
+        <v>1.037939416871695</v>
       </c>
       <c r="J20">
-        <v>1.053881198599722</v>
+        <v>1.002637184958317</v>
       </c>
       <c r="K20">
-        <v>1.053857988139142</v>
+        <v>1.013964462488422</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.061863029413551</v>
+        <v>1.010983322011977</v>
       </c>
       <c r="N20">
-        <v>1.055377830783597</v>
+        <v>1.00406104476505</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045773127670345</v>
+        <v>0.9610147498331029</v>
       </c>
       <c r="D21">
-        <v>1.04899341106074</v>
+        <v>0.9898382175989052</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.056756938445121</v>
+        <v>0.9854031130572224</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039621539985527</v>
+        <v>1.03333470637234</v>
       </c>
       <c r="J21">
-        <v>1.052289327736959</v>
+        <v>0.99223795739612</v>
       </c>
       <c r="K21">
-        <v>1.052525854677649</v>
+        <v>1.005014699838642</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>1.060261502467955</v>
+        <v>1.000666407297036</v>
       </c>
       <c r="N21">
-        <v>1.053783699281618</v>
+        <v>0.993647049106907</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044517827483568</v>
+        <v>0.9523437412769014</v>
       </c>
       <c r="D22">
-        <v>1.048020855040584</v>
+        <v>0.9831532477530931</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651168</v>
       </c>
       <c r="F22">
-        <v>1.055615760181882</v>
+        <v>0.9777939544857152</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039278373719677</v>
+        <v>1.030260396598254</v>
       </c>
       <c r="J22">
-        <v>1.051284235479659</v>
+        <v>0.9853280925871634</v>
       </c>
       <c r="K22">
-        <v>1.051684106543853</v>
+        <v>0.9990659961343418</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572522</v>
       </c>
       <c r="M22">
-        <v>1.059250628293447</v>
+        <v>0.9938185369170949</v>
       </c>
       <c r="N22">
-        <v>1.052777179678027</v>
+        <v>0.9867273714973491</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045183673577905</v>
+        <v>0.9569879517597919</v>
       </c>
       <c r="D23">
-        <v>1.048536775248332</v>
+        <v>0.9867324676234482</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.056221052527919</v>
+        <v>0.9818676151496897</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039460617981236</v>
+        <v>1.031908391047054</v>
       </c>
       <c r="J23">
-        <v>1.051817458983201</v>
+        <v>0.9890291613762521</v>
       </c>
       <c r="K23">
-        <v>1.05213073393391</v>
+        <v>1.002252393755799</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.947539133028532</v>
       </c>
       <c r="M23">
-        <v>1.059786889300003</v>
+        <v>0.997485677516744</v>
       </c>
       <c r="N23">
-        <v>1.053311160420107</v>
+        <v>0.990433696228637</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.047796560271026</v>
+        <v>0.9742804524037058</v>
       </c>
       <c r="D24">
-        <v>1.05056022620126</v>
+        <v>1.000083903378862</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401171</v>
       </c>
       <c r="F24">
-        <v>1.058596758388887</v>
+        <v>0.9970719910811824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040170917136078</v>
+        <v>1.038013838597403</v>
       </c>
       <c r="J24">
-        <v>1.053907816120544</v>
+        <v>1.002805809925311</v>
       </c>
       <c r="K24">
-        <v>1.053880251574979</v>
+        <v>1.014109545740046</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442452</v>
       </c>
       <c r="M24">
-        <v>1.061889813682476</v>
+        <v>1.01115072169192</v>
       </c>
       <c r="N24">
-        <v>1.055404486104352</v>
+        <v>1.004229909198838</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050811778352038</v>
+        <v>0.9926378857667674</v>
       </c>
       <c r="D25">
-        <v>1.052892918546142</v>
+        <v>1.014292745125627</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>1.061339140234389</v>
+        <v>1.013272080479211</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040980526378144</v>
+        <v>1.044427034774724</v>
       </c>
       <c r="J25">
-        <v>1.056315690240146</v>
+        <v>1.017415580246991</v>
       </c>
       <c r="K25">
-        <v>1.055892681108022</v>
+        <v>1.026673163556552</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>1.064313512592895</v>
+        <v>1.025667799843963</v>
       </c>
       <c r="N25">
-        <v>1.05781577968139</v>
+        <v>1.018860427070139</v>
       </c>
     </row>
   </sheetData>
